--- a/PhieuKiemDinh/PhieuKiemDinh/Resources/FeedBack.xlsx
+++ b/PhieuKiemDinh/PhieuKiemDinh/Resources/FeedBack.xlsx
@@ -37,7 +37,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +52,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -132,26 +140,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,40 +504,43 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="9.125" customWidth="1"/>
-    <col min="9" max="9" width="15.875" customWidth="1"/>
-    <col min="10" max="10" width="17.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="8" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="17.875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="18" style="4" customWidth="1"/>
+    <col min="12" max="12" width="17.875" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="2" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/PhieuKiemDinh/PhieuKiemDinh/Resources/FeedBack.xlsx
+++ b/PhieuKiemDinh/PhieuKiemDinh/Resources/FeedBack.xlsx
@@ -152,6 +152,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -161,7 +162,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,12 +504,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="8"/>
+    <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="6" width="9" style="3"/>
     <col min="7" max="7" width="8" style="3" customWidth="1"/>
     <col min="8" max="8" width="9.125" style="3" customWidth="1"/>
@@ -521,16 +521,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8"/>
       <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
